--- a/medicine/Sexualité et sexologie/Institut_de_sexologie/Institut_de_sexologie.xlsx
+++ b/medicine/Sexualité et sexologie/Institut_de_sexologie/Institut_de_sexologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut de sexologie (Institut für Sexualwissenschaft) de Magnus Hirschfeld est un organisme privé à Berlin, ouvert le 6 juillet 1919 et détruit en mai 1933 dans le cadre des autodafés et pillages de 1933 par les nazis.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En créant cet institut, Hirschfeld, étant médecin et réformateur de sexologie engagé depuis la fin du XIXe siècle, a réalisé un rêve personnel : contribuer à la mise en place de l'institutionnalisation de la sexologie malgré les voix critiques (notamment du côté de la science) et assurer une protection juridique ainsi qu'une sécurité financière à la « promotion de la recherche scientifique de l'ensemble de la vie sexuelle et l'information sur ce territoire. »
 L'institut était révolutionnaire et un lieu unique dans ses fonctions, jusqu'après la Seconde Guerre mondiale. Ce que les nazis n'ont pas brûlé le 10 mai 1933 sur la place de l'Opéra (aujourd'hui Bebelplatz) à Berlin et ce qui n'a pas été vendu en novembre 1933 par le bureau de contribution de Berlin a été perdu lors du bombardement de Berlin à la fin de la Seconde Guerre mondiale.
@@ -546,7 +560,9 @@
           <t>Structure et organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut, censé être un lieu de recherche scientifique, ne l'est jamais devenu malgré les idées de Magnus Hirschfeld. C'était surtout une institution ambulatoire qui servait à donner des conseils en cas de problèmes sexuels et à faire des examens médicaux. Étant une archive de collecte, de tri et de traitement, ainsi qu'un musée de la démonstration de publications de sexologues et autres documents pertinents de toutes sortes, il a été un pôle d'attraction dans le Berlin des années folles. 
 Il servait de lieu de formation de médecins, de lieu de conférence, même si Hirschfeld et Arthur Kronfeld sont intervenus dans de nombreuses universités et autres établissements d'enseignement de Berlin et au-delà. Il a joué un rôle non négligeable dans l'organisation d'activités novatrices en sexologie. 
@@ -578,10 +594,12 @@
           <t>Pionniers dans la question de la transidentité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magnus Hirschfeld a forgé le terme de transsexualité[1], identifiant la catégorie médicale que son collègue Harry Benjamin développera plus tard aux États-Unis. Il y avait des personnes transgenres parmi le personnel de l'institut ainsi que parmi les clients, comme Charlotte Charlaque (interprète et standardiste), Toni Ebel et Dora Richter (cuisinière)[2]. Des interventions chirurgicales et endocrinologiques étaient proposées, incluant les premières interventions de chirurgie de réattribution sexuelle à partir de 1930.
-Hirschfeld a également collaboré avec la police de Berlin, créant un « laissez-passer de travesti » pour les personnes désirant porter des vêtements associés à un autre genre que celui attribué à leur naissance, afin d'éviter qu'elles soient systématiquement arrêtées ou soupçonnées de prostitution[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magnus Hirschfeld a forgé le terme de transsexualité, identifiant la catégorie médicale que son collègue Harry Benjamin développera plus tard aux États-Unis. Il y avait des personnes transgenres parmi le personnel de l'institut ainsi que parmi les clients, comme Charlotte Charlaque (interprète et standardiste), Toni Ebel et Dora Richter (cuisinière). Des interventions chirurgicales et endocrinologiques étaient proposées, incluant les premières interventions de chirurgie de réattribution sexuelle à partir de 1930.
+Hirschfeld a également collaboré avec la police de Berlin, créant un « laissez-passer de travesti » pour les personnes désirant porter des vêtements associés à un autre genre que celui attribué à leur naissance, afin d'éviter qu'elles soient systématiquement arrêtées ou soupçonnées de prostitution,.
 </t>
         </is>
       </c>
